--- a/src/Imagenes/PlantillaJugadores.xlsx
+++ b/src/Imagenes/PlantillaJugadores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elmerUni\2022-2\SofwareEnginneringWorkshop\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\BasquetFrontend\src\Imagenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC26D0D1-3599-4221-BE1D-6C6E843A96AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997FE8DB-7B2A-4350-9969-4A27DEA51107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="990" windowWidth="21540" windowHeight="15210" xr2:uid="{1A9C86CA-F8A6-4DE7-8517-F15CFDB2823B}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{1A9C86CA-F8A6-4DE7-8517-F15CFDB2823B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,34 +41,26 @@
     <t>Carnet de identidad</t>
   </si>
   <si>
-    <t>Numero Celular</t>
-  </si>
-  <si>
     <t>correo electronico</t>
   </si>
   <si>
-    <t>Rol</t>
-  </si>
-  <si>
-    <t>Fecha Nacimiento</t>
+    <t>Codigo Pais + Numero Celular</t>
+  </si>
+  <si>
+    <t>Rol(jugador, cuerpoTecnico, ambos)</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento("0000-00-00")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,17 +83,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,16 +407,17 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -437,22 +428,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="elme@gmail" xr:uid="{70CD9BD8-1EDA-48F8-A293-B53F9E665BE8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>